--- a/POM/Test Components/TestScript.xlsx
+++ b/POM/Test Components/TestScript.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mounisha.m\git\POMFramework\POM\Test Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CC0435-750C-4C55-9BEC-5C7085A9E2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431B2D64-F13A-4ABD-A666-5D8E262F8798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,12 +500,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -527,6 +534,12 @@
       <color rgb="FF000000"/>
       <name val="Arial11"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -582,25 +595,31 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -879,9 +898,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -973,7 +992,7 @@
       <c r="A2" s="3">
         <v>8.1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1814,7 +1833,7 @@
       <c r="B17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="9" t="s">
         <v>99</v>
       </c>
       <c r="D17" s="3" t="s">
